--- a/public/Data Limbah.xlsx
+++ b/public/Data Limbah.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -35,40 +35,25 @@
     <t>Harga</t>
   </si>
   <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
-    <t>Padat</t>
-  </si>
-  <si>
-    <t>unila</t>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>cair</t>
+  </si>
+  <si>
+    <t>Dekanat</t>
+  </si>
+  <si>
+    <t>1 Liter</t>
+  </si>
+  <si>
+    <t>2 Liter</t>
+  </si>
+  <si>
+    <t>padat</t>
   </si>
   <si>
     <t>2 KG</t>
-  </si>
-  <si>
-    <t>Cair</t>
-  </si>
-  <si>
-    <t>2 Liter</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>2023-08-26</t>
-  </si>
-  <si>
-    <t>ilkomp</t>
-  </si>
-  <si>
-    <t>12 Liter</t>
-  </si>
-  <si>
-    <t>Cairan</t>
-  </si>
-  <si>
-    <t>4 Ons</t>
   </si>
 </sst>
 </file>
@@ -408,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +449,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,17 +466,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -499,19 +486,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>240000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -519,12 +506,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
@@ -537,17 +526,59 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7"/>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>40000</v>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
